--- a/executioninfo/input-data/TestSuite.xlsx
+++ b/executioninfo/input-data/TestSuite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>SuiteName</t>
   </si>
@@ -68,6 +68,9 @@
 d. Change Password
 e. Add Email Address
 f. Remove Email Address</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -128,14 +131,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,7 +642,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -452,47 +652,47 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
     </row>

--- a/executioninfo/input-data/TestSuite.xlsx
+++ b/executioninfo/input-data/TestSuite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>SuiteName</t>
   </si>
@@ -68,9 +68,6 @@
 d. Change Password
 e. Add Email Address
 f. Remove Email Address</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -642,7 +639,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.2">
@@ -682,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="106" thickBot="1" x14ac:dyDescent="0.25">

--- a/executioninfo/input-data/TestSuite.xlsx
+++ b/executioninfo/input-data/TestSuite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>SuiteName</t>
   </si>
@@ -68,6 +68,9 @@
 d. Change Password
 e. Add Email Address
 f. Remove Email Address</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.2">
@@ -679,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="106" thickBot="1" x14ac:dyDescent="0.25">

--- a/executioninfo/input-data/TestSuite.xlsx
+++ b/executioninfo/input-data/TestSuite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>SuiteName</t>
   </si>
@@ -68,9 +68,6 @@
 d. Change Password
 e. Add Email Address
 f. Remove Email Address</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.2">
@@ -682,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="106" thickBot="1" x14ac:dyDescent="0.25">

--- a/executioninfo/input-data/TestSuite.xlsx
+++ b/executioninfo/input-data/TestSuite.xlsx
@@ -44,14 +44,6 @@
     <t>Products</t>
   </si>
   <si>
-    <t>To verify the following functionalities
-a. Search Products and Filter By Price
-a. Search Products and Filter By Brands
-a. Search Products and Filter By Discount
-a. Search Products and Filter By Availability
-e. Add Products to Cart, Verify Total and Checkout</t>
-  </si>
-  <si>
     <t>MyAccount</t>
   </si>
   <si>
@@ -68,6 +60,15 @@
 d. Change Password
 e. Add Email Address
 f. Remove Email Address</t>
+  </si>
+  <si>
+    <t>To verify the following functionalities
+a. Search Products and Filter By Price
+b. Search Products and Filter By Brands
+c. Search Products and Filter By Discount
+d. Search Products and Filter By Availability
+e. Search Products and Filter By Pack Sizes
+f. Add Products to Cart, Verify Total and Checkout</t>
   </si>
 </sst>
 </file>
@@ -665,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -673,21 +674,21 @@
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>2</v>
